--- a/datalists/npr1_HD_list.xlsx
+++ b/datalists/npr1_HD_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="3000" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>/data2/shared/data/Results/recording31.1g100-350/recording31.1g_X1_skeletons.hdf5</t>
   </si>
@@ -58,18 +58,121 @@
   </si>
   <si>
     <t>*: phase frames estimated from average of other replicates with clear hand annotation</t>
+  </si>
+  <si>
+    <t>0-18800</t>
+  </si>
+  <si>
+    <t>18860-end</t>
+  </si>
+  <si>
+    <t>0-21500</t>
+  </si>
+  <si>
+    <t>21550-end</t>
+  </si>
+  <si>
+    <t>0-17870</t>
+  </si>
+  <si>
+    <t>17960-end</t>
+  </si>
+  <si>
+    <t>0-2050</t>
+  </si>
+  <si>
+    <t>2200-19480</t>
+  </si>
+  <si>
+    <t>19650-end</t>
+  </si>
+  <si>
+    <t>0-350</t>
+  </si>
+  <si>
+    <t>500-3230</t>
+  </si>
+  <si>
+    <t>3340-27980</t>
+  </si>
+  <si>
+    <t>28060-end</t>
+  </si>
+  <si>
+    <t>500-15470</t>
+  </si>
+  <si>
+    <t>0-3250</t>
+  </si>
+  <si>
+    <t>3350-14650</t>
+  </si>
+  <si>
+    <t>14700-end</t>
+  </si>
+  <si>
+    <t>150-15620</t>
+  </si>
+  <si>
+    <t>15670-27500</t>
+  </si>
+  <si>
+    <t>27650-29920</t>
+  </si>
+  <si>
+    <t>30100-end</t>
+  </si>
+  <si>
+    <t>0-620</t>
+  </si>
+  <si>
+    <t>670-19800</t>
+  </si>
+  <si>
+    <t>19900-22540</t>
+  </si>
+  <si>
+    <t>22670-24950</t>
+  </si>
+  <si>
+    <t>25130-26480</t>
+  </si>
+  <si>
+    <t>26600-30780</t>
+  </si>
+  <si>
+    <t>30860-end</t>
+  </si>
+  <si>
+    <t>180-12460</t>
+  </si>
+  <si>
+    <t>12650-20100</t>
+  </si>
+  <si>
+    <t>20200-end</t>
+  </si>
+  <si>
+    <t>120-8000</t>
+  </si>
+  <si>
+    <t>8100-19500</t>
+  </si>
+  <si>
+    <t>19580-end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,6 +198,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -118,9 +226,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -454,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -465,7 +574,7 @@
     <col min="1" max="1" width="61.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +590,19 @@
       <c r="E1">
         <v>31682</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -498,8 +618,19 @@
       <c r="E2">
         <v>32400</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -518,8 +649,19 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -538,8 +680,21 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -555,8 +710,23 @@
       <c r="E5">
         <v>32400</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -572,8 +742,17 @@
       <c r="E6">
         <v>16035</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -592,8 +771,21 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -609,8 +801,23 @@
       <c r="E8">
         <v>32400</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -626,8 +833,29 @@
       <c r="E9">
         <v>32400</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -643,8 +871,21 @@
       <c r="E10">
         <v>32400</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -660,8 +901,21 @@
       <c r="E11">
         <v>32400</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
